--- a/controlFile.xlsx
+++ b/controlFile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lynn\Documents\tact-python_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC342288-4405-43D4-B17F-C434F9F6CF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A684762A-ED61-4274-97C1-47206581C714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{887032C2-327D-43A5-BEFA-3B69D94E2357}"/>
   </bookViews>
@@ -35,21 +35,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Pretesting</t>
   </si>
   <si>
-    <t>Training, Teacher, No Haptics</t>
-  </si>
-  <si>
-    <t>Training, Teacher, Haptics</t>
-  </si>
-  <si>
-    <t>Training, No Teacher, No Haptics</t>
-  </si>
-  <si>
-    <t>Post testing</t>
+    <t>Device Parameters</t>
+  </si>
+  <si>
+    <t>Training Type/Mode</t>
+  </si>
+  <si>
+    <t>Teacher Sensor</t>
+  </si>
+  <si>
+    <t>Student Sensor</t>
+  </si>
+  <si>
+    <t>Data File Name</t>
+  </si>
+  <si>
+    <t>data6.csv</t>
+  </si>
+  <si>
+    <t>Training 1</t>
+  </si>
+  <si>
+    <t>Midtesting</t>
+  </si>
+  <si>
+    <t>Training 2</t>
+  </si>
+  <si>
+    <t>Post Testing</t>
+  </si>
+  <si>
+    <t>Round Blocks</t>
+  </si>
+  <si>
+    <t>Training Control Values</t>
+  </si>
+  <si>
+    <t>Graduated Increase (1=Y,0=N)</t>
+  </si>
+  <si>
+    <t>Student Control Values: List horizontally for number of training rounds/blocks</t>
+  </si>
+  <si>
+    <t>Training Mode</t>
+  </si>
+  <si>
+    <t>No Teacher, No Haptics</t>
+  </si>
+  <si>
+    <t>Teacher, No Haptics</t>
+  </si>
+  <si>
+    <t>Teacher, Haptics</t>
+  </si>
+  <si>
+    <t>Individual Round Sequences</t>
   </si>
 </sst>
 </file>
@@ -401,15 +446,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D384FF3-1506-4960-A7CC-E64E036910DF}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.08984375" bestFit="1" customWidth="1"/>
@@ -418,30 +463,203 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15">
+        <v>0.4</v>
+      </c>
+      <c r="D15">
+        <v>0.6</v>
+      </c>
+      <c r="E15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>0.1</v>
+      </c>
+      <c r="B23">
+        <v>0.3</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <v>0.7</v>
+      </c>
+      <c r="E23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>0.1</v>
+      </c>
+      <c r="B24">
+        <v>0.4</v>
+      </c>
+      <c r="C24">
+        <v>0.6</v>
+      </c>
+      <c r="D24">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/controlFile.xlsx
+++ b/controlFile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lynn\Documents\tact-python_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A684762A-ED61-4274-97C1-47206581C714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B1DFA0-E5D1-4639-B5D2-9CB6827D961B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{887032C2-327D-43A5-BEFA-3B69D94E2357}"/>
   </bookViews>
